--- a/src/stats/outputTables/SummaryStatistics.xlsx
+++ b/src/stats/outputTables/SummaryStatistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E67C2B7-9081-444E-857C-6B2777172441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9B07A-819B-4F54-B481-C529F16B532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="12456" tabRatio="500" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="averageTurnRate" sheetId="2" r:id="rId3"/>
     <sheet name="Gaze" sheetId="4" r:id="rId4"/>
     <sheet name="pupilDilation" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
-    <sheet name="TLX" sheetId="7" r:id="rId7"/>
+    <sheet name="CorrelationWithBehaviour" sheetId="6" r:id="rId6"/>
+    <sheet name="CorrelationWithPerformance" sheetId="8" r:id="rId7"/>
+    <sheet name="TLX" sheetId="7" r:id="rId8"/>
+    <sheet name="FracPartialStops" sheetId="9" r:id="rId9"/>
+    <sheet name="FracCompleteStops" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
   <si>
     <t>Model: performance ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
@@ -127,13 +130,34 @@
   </si>
   <si>
     <t>Model: frustrationTLX ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
+  </si>
+  <si>
+    <t>Correlation with Performance</t>
+  </si>
+  <si>
+    <t>R val</t>
+  </si>
+  <si>
+    <t>P val</t>
+  </si>
+  <si>
+    <t>Pupil Dilation</t>
+  </si>
+  <si>
+    <t>Saccade Frequency</t>
+  </si>
+  <si>
+    <t>Model: fracPartialStops ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
+  </si>
+  <si>
+    <t>Model: fracCompleteStops ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,6 +172,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -178,6 +209,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,11 +420,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -504,6 +536,91 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3E899E-1536-49AD-AB3E-B7C98FE007F3}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="73.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3.2398000000000003E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.3070999999999999E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>9.11E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1649E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.13170000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-7.3039999999999997E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.34350000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -523,11 +640,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -647,7 +764,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,11 +775,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -781,7 +898,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -791,11 +910,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -866,7 +985,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,11 +996,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -949,10 +1068,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AB708E-7C45-4FAD-91C6-FFAE4DB25CE8}">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,50 +1079,50 @@
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" t="s">
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
+      <c r="H3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="I3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1016,20 +1135,20 @@
       <c r="D4">
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="F4" t="s">
         <v>20</v>
       </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="I4">
-        <v>5</v>
-      </c>
-      <c r="J4">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="K4">
         <v>0.46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>10</v>
       </c>
@@ -1039,17 +1158,17 @@
       <c r="D5">
         <v>0.20200000000000001</v>
       </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="I5">
-        <v>10</v>
-      </c>
-      <c r="J5">
-        <v>3.4000000000000002E-2</v>
-      </c>
-      <c r="K5">
         <v>0.51</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>15</v>
       </c>
@@ -1059,17 +1178,17 @@
       <c r="D6">
         <v>0.20599999999999999</v>
       </c>
+      <c r="G6">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>4.2999999999999997E-2</v>
+      </c>
       <c r="I6">
-        <v>15</v>
-      </c>
-      <c r="J6">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="K6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>20</v>
       </c>
@@ -1079,17 +1198,17 @@
       <c r="D7">
         <v>0.36799999999999999</v>
       </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>4.7E-2</v>
+      </c>
       <c r="I7">
-        <v>20</v>
-      </c>
-      <c r="J7">
-        <v>4.7E-2</v>
-      </c>
-      <c r="K7">
         <v>0.53</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1102,17 +1221,20 @@
       <c r="D9" t="s">
         <v>5</v>
       </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>-8.0000000000000002E-3</v>
+      </c>
       <c r="I9">
-        <v>5</v>
-      </c>
-      <c r="J9">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-      <c r="K9">
         <v>0.44800000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>10</v>
       </c>
@@ -1122,17 +1244,17 @@
       <c r="D10" t="s">
         <v>5</v>
       </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>-3.4000000000000002E-2</v>
+      </c>
       <c r="I10">
-        <v>10</v>
-      </c>
-      <c r="J10">
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="K10">
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>15</v>
       </c>
@@ -1142,17 +1264,17 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
+      <c r="G11">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>-3.9E-2</v>
+      </c>
       <c r="I11">
-        <v>15</v>
-      </c>
-      <c r="J11">
-        <v>-3.9E-2</v>
-      </c>
-      <c r="K11">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>20</v>
       </c>
@@ -1162,19 +1284,166 @@
       <c r="D12">
         <v>2E-3</v>
       </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+      <c r="H12">
+        <v>-3.3000000000000002E-2</v>
+      </c>
       <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12">
-        <v>-3.3000000000000002E-2</v>
-      </c>
-      <c r="K12">
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>25</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>0.124</v>
+      </c>
+      <c r="D15">
+        <v>1.6E-2</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="I15">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="D16">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D17">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+      <c r="H17">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924558C9-272B-4161-89F1-391AFC9A47B0}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>0.183</v>
+      </c>
+      <c r="C3">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="C4">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="C5">
+        <v>0.28299999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1182,7 +1451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5546FD00-CFA9-452D-80B2-E519BCC4557F}">
   <dimension ref="A1:C47"/>
   <sheetViews>
@@ -1198,11 +1467,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1260,11 +1529,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1322,11 +1591,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1384,11 +1653,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1446,11 +1715,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1508,11 +1777,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1582,7 +1851,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260F435-9822-4414-8C29-C3F84D2EA759}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.7582000000000003E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5640000000000001E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.17419999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.5609999999999999E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.82340000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1.9008000000000001E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A33546A15CE6864187FC0BB5044AF53A" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e95f9e0eae3b3b5b5dfeabf5dcb75fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97ec87dc-3e4b-498f-8c54-d3eec44d52b0" xmlns:ns4="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d29a5eb9820d4dc372c4f08d489381e" ns3:_="" ns4:_="">
     <xsd:import namespace="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
@@ -1835,24 +2204,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F1F54F-16B3-456B-B504-1016F2BF1C61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1869,29 +2246,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/stats/outputTables/SummaryStatistics.xlsx
+++ b/src/stats/outputTables/SummaryStatistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F9B07A-819B-4F54-B481-C529F16B532B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8BF19-CB64-4FB3-BACC-74AFC1F8A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,12 @@
     <sheet name="Gaze" sheetId="4" r:id="rId4"/>
     <sheet name="pupilDilation" sheetId="5" r:id="rId5"/>
     <sheet name="CorrelationWithBehaviour" sheetId="6" r:id="rId6"/>
-    <sheet name="CorrelationWithPerformance" sheetId="8" r:id="rId7"/>
-    <sheet name="TLX" sheetId="7" r:id="rId8"/>
-    <sheet name="FracPartialStops" sheetId="9" r:id="rId9"/>
-    <sheet name="FracCompleteStops" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
+    <sheet name="CorrelationWithPerformance" sheetId="8" r:id="rId8"/>
+    <sheet name="CorrelationCogLoadWithFreeze" sheetId="11" r:id="rId9"/>
+    <sheet name="TLX" sheetId="7" r:id="rId10"/>
+    <sheet name="FracPartialStops" sheetId="9" r:id="rId11"/>
+    <sheet name="FracCompleteStops" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
   <si>
     <t>Model: performance ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
@@ -93,9 +95,6 @@
     <t>pVal</t>
   </si>
   <si>
-    <t>Correlation with performance</t>
-  </si>
-  <si>
     <t xml:space="preserve">Average Pupil Diameter </t>
   </si>
   <si>
@@ -151,13 +150,103 @@
   </si>
   <si>
     <t>Model: fracCompleteStops ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
+  </si>
+  <si>
+    <t>Partial stops vs Cognitive Load</t>
+  </si>
+  <si>
+    <t>Complete stops vs Cognitive Load</t>
+  </si>
+  <si>
+    <t>EEG</t>
+  </si>
+  <si>
+    <t>movement cues</t>
+  </si>
+  <si>
+    <t>turn rate (deg./s)</t>
+  </si>
+  <si>
+    <t>speed (m/s)</t>
+  </si>
+  <si>
+    <t>freezing time (fraction)</t>
+  </si>
+  <si>
+    <t>turning while still (fraction)</t>
+  </si>
+  <si>
+    <t>Window size</t>
+  </si>
+  <si>
+    <t>cognitive load measures</t>
+  </si>
+  <si>
+    <t>EEG based</t>
+  </si>
+  <si>
+    <t>R value (pvalue)</t>
+  </si>
+  <si>
+    <t>Pupil diameter</t>
+  </si>
+  <si>
+    <t>Saccade frequency</t>
+  </si>
+  <si>
+    <t>0.005 (0.620)</t>
+  </si>
+  <si>
+    <t>0.016 (0.133)</t>
+  </si>
+  <si>
+    <t>0.049 (0.001)</t>
+  </si>
+  <si>
+    <t>0.075 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.066 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.100 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.082 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.116 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.008 (0.468)</t>
+  </si>
+  <si>
+    <t>-0.007 (0.529)</t>
+  </si>
+  <si>
+    <t>-0.009 (0.537)</t>
+  </si>
+  <si>
+    <t>-0.007 (0.659)</t>
+  </si>
+  <si>
+    <t>-0.009 (0.636)</t>
+  </si>
+  <si>
+    <t>-0.007 (0.700)</t>
+  </si>
+  <si>
+    <t>-0.013 (0.552)</t>
+  </si>
+  <si>
+    <t>-0.009 (0.676)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +269,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -201,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -213,6 +309,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,10 +644,493 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5546FD00-CFA9-452D-80B2-E519BCC4557F}">
+  <dimension ref="A1:C47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-0.67200000000000004</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-1.446</v>
+      </c>
+      <c r="C6" s="2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-0.153</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3.3370000000000002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.88100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2">
+        <v>-0.4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.55100000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-0.47499999999999998</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-1.085</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-1.0609999999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-1.4E-2</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="2">
+        <v>10.987</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="2">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4.0359999999999996</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0.1386</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.89900000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>8.7870000000000008</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-1.198</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-1.448</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-0.17599999999999999</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>5.5620000000000003</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-0.153</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-1.627</v>
+      </c>
+      <c r="C46" s="2">
+        <v>5.6000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A25:C25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260F435-9822-4414-8C29-C3F84D2EA759}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>6.7582000000000003E-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.5640000000000001E-2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.17419999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2.5609999999999999E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.82340000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-1.9008000000000001E-2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9.9099999999999994E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD3E899E-1536-49AD-AB3E-B7C98FE007F3}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +1143,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -1071,7 +1658,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,24 +1675,18 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1124,7 +1705,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -1136,7 +1717,7 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
         <v>5</v>
@@ -1210,7 +1791,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -1222,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -1296,7 +1877,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -1308,7 +1889,7 @@
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G14">
         <v>5</v>
@@ -1387,11 +1968,239 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1353C-FE0A-4F37-A9E0-D5C8333DFC4F}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="18" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6">
+        <v>5</v>
+      </c>
+      <c r="H3" s="6">
+        <v>10</v>
+      </c>
+      <c r="I3" s="6">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6">
+        <v>20</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5</v>
+      </c>
+      <c r="L3" s="6">
+        <v>10</v>
+      </c>
+      <c r="M3" s="6">
+        <v>15</v>
+      </c>
+      <c r="N3" s="6">
+        <v>20</v>
+      </c>
+      <c r="O3" s="6">
+        <v>5</v>
+      </c>
+      <c r="P3" s="6">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>15</v>
+      </c>
+      <c r="R3" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="A4:A6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{924558C9-272B-4161-89F1-391AFC9A47B0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,20 +2211,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>0.183</v>
@@ -1426,7 +2235,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>-0.23799999999999999</v>
@@ -1437,7 +2246,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>8.5000000000000006E-2</v>
@@ -1451,507 +2260,118 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5546FD00-CFA9-452D-80B2-E519BCC4557F}">
-  <dimension ref="A1:C47"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D8443B-0C3E-4019-B683-3C6B5F9A2B47}">
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="38" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C3">
+        <v>0.74399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>7.4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>-0.67200000000000004</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>-1.446</v>
-      </c>
-      <c r="C6" s="2">
-        <v>9.8000000000000004E-2</v>
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>0.158</v>
+      </c>
+      <c r="C5">
+        <v>4.5999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-0.153</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.86</v>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9">
+        <v>3.56E-2</v>
+      </c>
+      <c r="C9">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>-1.6E-2</v>
+      </c>
+      <c r="C10">
+        <v>0.84299999999999997</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3.3370000000000002</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.88100000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2">
-        <v>-0.4</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.55100000000000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2">
-        <v>-0.47499999999999998</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.47799999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B20" s="2">
-        <v>6.3</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="2">
-        <v>-1.085</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.151</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2">
-        <v>-1.0609999999999999</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2">
-        <v>-1.4E-2</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0.98499999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" s="2">
-        <v>10.987</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2">
-        <v>0.88639999999999997</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4.0359999999999996</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" s="2">
-        <v>0.1386</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.89900000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2">
-        <v>8.7870000000000008</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="2">
-        <v>-1.198</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" s="2">
-        <v>-1.448</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" s="2">
-        <v>-0.17599999999999999</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.84499999999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="2">
-        <v>5.5620000000000003</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="2">
-        <v>-0.153</v>
-      </c>
-      <c r="C45" s="2">
-        <v>0.85699999999999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>12</v>
-      </c>
-      <c r="B46" s="2">
-        <v>-1.627</v>
-      </c>
-      <c r="C46" s="2">
-        <v>5.6000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="2">
-        <v>0.27700000000000002</v>
-      </c>
-      <c r="C47" s="2">
-        <v>0.74299999999999999</v>
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>0.185</v>
+      </c>
+      <c r="C11">
+        <v>1.9E-2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A25:C25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5260F435-9822-4414-8C29-C3F84D2EA759}">
-  <dimension ref="A1:C7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="75.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>6.7582000000000003E-2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1.5640000000000001E-2</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.17419999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.5609999999999999E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.82340000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>-1.9008000000000001E-2</v>
-      </c>
-      <c r="C7" s="2">
-        <v>9.9099999999999994E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A33546A15CE6864187FC0BB5044AF53A" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e95f9e0eae3b3b5b5dfeabf5dcb75fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97ec87dc-3e4b-498f-8c54-d3eec44d52b0" xmlns:ns4="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d29a5eb9820d4dc372c4f08d489381e" ns3:_="" ns4:_="">
     <xsd:import namespace="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
@@ -2204,32 +2624,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F1F54F-16B3-456B-B504-1016F2BF1C61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2246,4 +2658,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/stats/outputTables/SummaryStatistics.xlsx
+++ b/src/stats/outputTables/SummaryStatistics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F8BF19-CB64-4FB3-BACC-74AFC1F8A595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3BE3B-A80B-4BE1-ABF0-0EA0B0D0E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>Model: performance ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
@@ -161,33 +161,12 @@
     <t>EEG</t>
   </si>
   <si>
-    <t>movement cues</t>
-  </si>
-  <si>
-    <t>turn rate (deg./s)</t>
-  </si>
-  <si>
-    <t>speed (m/s)</t>
-  </si>
-  <si>
-    <t>freezing time (fraction)</t>
-  </si>
-  <si>
-    <t>turning while still (fraction)</t>
-  </si>
-  <si>
     <t>Window size</t>
   </si>
   <si>
-    <t>cognitive load measures</t>
-  </si>
-  <si>
     <t>EEG based</t>
   </si>
   <si>
-    <t>R value (pvalue)</t>
-  </si>
-  <si>
     <t>Pupil diameter</t>
   </si>
   <si>
@@ -240,13 +219,127 @@
   </si>
   <si>
     <t>-0.009 (0.676)</t>
+  </si>
+  <si>
+    <t>0.025 (0.024)</t>
+  </si>
+  <si>
+    <t>-0.008 (0.472)</t>
+  </si>
+  <si>
+    <t>0.069 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.072 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.052 (0.006)</t>
+  </si>
+  <si>
+    <t>0.055 (0.004)</t>
+  </si>
+  <si>
+    <t>0.045 (0.039)</t>
+  </si>
+  <si>
+    <t>0.058 (0.008)</t>
+  </si>
+  <si>
+    <t>-0.008 (0.448)</t>
+  </si>
+  <si>
+    <t>-0.034 (0.033)</t>
+  </si>
+  <si>
+    <t>-0.039 (0.049)</t>
+  </si>
+  <si>
+    <t>-0.033 (0.149)</t>
+  </si>
+  <si>
+    <t>0.026 (0.460)</t>
+  </si>
+  <si>
+    <t>0.034 (0.510)</t>
+  </si>
+  <si>
+    <t>0.047 (0.530)</t>
+  </si>
+  <si>
+    <t>0.068 (0.059)</t>
+  </si>
+  <si>
+    <t>0.067 (0.188)</t>
+  </si>
+  <si>
+    <t>0.043 (0.500)</t>
+  </si>
+  <si>
+    <t>0.083 (0.193)</t>
+  </si>
+  <si>
+    <t>0.119 (0.125)</t>
+  </si>
+  <si>
+    <t>0.038 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.098 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.071 (0.002)</t>
+  </si>
+  <si>
+    <t>0.060 (0.095)</t>
+  </si>
+  <si>
+    <t>0.066 (0.202)</t>
+  </si>
+  <si>
+    <t>0.081 (0.206)</t>
+  </si>
+  <si>
+    <t>0.067 (0.368)</t>
+  </si>
+  <si>
+    <t>Turn rate (deg./s)</t>
+  </si>
+  <si>
+    <t>Speed (m/s)</t>
+  </si>
+  <si>
+    <t>Freezing time (fraction)</t>
+  </si>
+  <si>
+    <t>Turning while still (fraction)</t>
+  </si>
+  <si>
+    <t>0.136 (&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.124 (0.016)</t>
+  </si>
+  <si>
+    <t>0.119 (0.058)</t>
+  </si>
+  <si>
+    <t>0.056 (0.474)</t>
+  </si>
+  <si>
+    <t>Cognitive load measures</t>
+  </si>
+  <si>
+    <t>Movement cues</t>
+  </si>
+  <si>
+    <t>qq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,6 +369,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -297,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -306,17 +406,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,11 +628,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -659,11 +763,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -721,11 +825,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -783,11 +887,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -845,11 +949,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -907,11 +1011,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -969,11 +1073,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1057,11 +1161,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1142,11 +1246,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1227,11 +1331,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1362,11 +1466,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1497,11 +1601,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1583,11 +1687,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1658,7 +1762,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection sqref="A1:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1969,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1353C-FE0A-4F37-A9E0-D5C8333DFC4F}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,213 +2086,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>10</v>
+      </c>
+      <c r="M3" s="4">
+        <v>15</v>
+      </c>
+      <c r="N3" s="4">
+        <v>20</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>15</v>
+      </c>
+      <c r="R3" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
+      <c r="C4" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="6">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6">
-        <v>15</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6">
-        <v>5</v>
-      </c>
-      <c r="H3" s="6">
-        <v>10</v>
-      </c>
-      <c r="I3" s="6">
-        <v>15</v>
-      </c>
-      <c r="J3" s="6">
-        <v>20</v>
-      </c>
-      <c r="K3" s="6">
-        <v>5</v>
-      </c>
-      <c r="L3" s="6">
-        <v>10</v>
-      </c>
-      <c r="M3" s="6">
-        <v>15</v>
-      </c>
-      <c r="N3" s="6">
-        <v>20</v>
-      </c>
-      <c r="O3" s="6">
-        <v>5</v>
-      </c>
-      <c r="P3" s="6">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="6">
-        <v>15</v>
-      </c>
-      <c r="R3" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="O4" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L5" s="8" t="s">
+      <c r="C6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="P6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="Q6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="R6" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:R2"/>
+  <mergeCells count="1">
     <mergeCell ref="A4:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2372,6 +2593,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A33546A15CE6864187FC0BB5044AF53A" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e95f9e0eae3b3b5b5dfeabf5dcb75fbc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="97ec87dc-3e4b-498f-8c54-d3eec44d52b0" xmlns:ns4="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d29a5eb9820d4dc372c4f08d489381e" ns3:_="" ns4:_="">
     <xsd:import namespace="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
@@ -2624,15 +2854,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2642,6 +2863,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3F1F54F-16B3-456B-B504-1016F2BF1C61}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2656,14 +2885,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/src/stats/outputTables/SummaryStatistics.xlsx
+++ b/src/stats/outputTables/SummaryStatistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GrandCanyonSAR_analysis\src\stats\outputTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A3BE3B-A80B-4BE1-ABF0-0EA0B0D0E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B19CC75-F851-4C9D-B176-5A6E4407F4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="848" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-168" windowWidth="23256" windowHeight="12456" tabRatio="813" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Performance" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,14 @@
     <sheet name="Gaze" sheetId="4" r:id="rId4"/>
     <sheet name="pupilDilation" sheetId="5" r:id="rId5"/>
     <sheet name="CorrelationWithBehaviour" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="12" r:id="rId7"/>
+    <sheet name="AggregateCorrs" sheetId="12" r:id="rId7"/>
     <sheet name="CorrelationWithPerformance" sheetId="8" r:id="rId8"/>
     <sheet name="CorrelationCogLoadWithFreeze" sheetId="11" r:id="rId9"/>
     <sheet name="TLX" sheetId="7" r:id="rId10"/>
     <sheet name="FracPartialStops" sheetId="9" r:id="rId11"/>
     <sheet name="FracCompleteStops" sheetId="10" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="132">
   <si>
     <t>Model: performance ~ SwarmCohesion + TargetKnowledge + TerrainKnowledge</t>
   </si>
@@ -329,17 +329,116 @@
     <t>Cognitive load measures</t>
   </si>
   <si>
-    <t>Movement cues</t>
-  </si>
-  <si>
-    <t>qq</t>
+    <t>Dwell Time</t>
+  </si>
+  <si>
+    <t>0.0447(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0158(0.145)</t>
+  </si>
+  <si>
+    <t>-0.055(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.074(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.056(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-8e-4(0.958)</t>
+  </si>
+  <si>
+    <t>-0.06(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.0797(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>0.0578(0.002)</t>
+  </si>
+  <si>
+    <t>-0.022(0.243)</t>
+  </si>
+  <si>
+    <t>-0.062(0.001)</t>
+  </si>
+  <si>
+    <t>0.0733(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>-0.039(0.0793)</t>
+  </si>
+  <si>
+    <t>-0.043(0.049)</t>
+  </si>
+  <si>
+    <t>-0.0546(0.013)</t>
+  </si>
+  <si>
+    <t>Situational awareness</t>
+  </si>
+  <si>
+    <t>Alpha power</t>
+  </si>
+  <si>
+    <t>0.0109(0.305)</t>
+  </si>
+  <si>
+    <t>0.028(0.063)</t>
+  </si>
+  <si>
+    <t>0.017(0.367)</t>
+  </si>
+  <si>
+    <t>0.012(0.594)</t>
+  </si>
+  <si>
+    <t>-0.017(0.107)</t>
+  </si>
+  <si>
+    <t>-0.0391(0.010)</t>
+  </si>
+  <si>
+    <t>-0.033(0.073)</t>
+  </si>
+  <si>
+    <t>-0.041(0.057)</t>
+  </si>
+  <si>
+    <t>0.068(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.073(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.083(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.082(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.108(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.114(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.127(&lt;0.001)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.136(&lt;0.001)</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,6 +475,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -397,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -406,20 +511,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,11 +746,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -752,7 +870,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,11 +881,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -825,11 +943,11 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -887,11 +1005,11 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -949,11 +1067,11 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1011,11 +1129,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1073,11 +1191,11 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1152,7 +1270,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:E37"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,11 +1279,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1235,7 +1353,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,11 +1364,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1331,11 +1449,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1466,11 +1584,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1601,11 +1719,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1676,7 +1794,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1687,11 +1805,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1762,7 +1880,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,346 +2191,528 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC1353C-FE0A-4F37-A9E0-D5C8333DFC4F}">
-  <dimension ref="A1:R31"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8">
+        <v>15</v>
+      </c>
+      <c r="F2" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D6" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="8">
+        <v>5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8">
+        <v>15</v>
+      </c>
+      <c r="F9" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="C13" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="O2" s="8" t="s">
+      <c r="C15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5</v>
+      </c>
+      <c r="D16" s="8">
+        <v>10</v>
+      </c>
+      <c r="E16" s="8">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C23" s="8">
         <v>5</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D23" s="8">
         <v>10</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E23" s="8">
         <v>15</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F23" s="8">
         <v>20</v>
       </c>
-      <c r="G3" s="4">
-        <v>5</v>
-      </c>
-      <c r="H3" s="4">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>15</v>
-      </c>
-      <c r="J3" s="4">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4">
-        <v>5</v>
-      </c>
-      <c r="L3" s="4">
-        <v>10</v>
-      </c>
-      <c r="M3" s="4">
-        <v>15</v>
-      </c>
-      <c r="N3" s="4">
-        <v>20</v>
-      </c>
-      <c r="O3" s="4">
-        <v>5</v>
-      </c>
-      <c r="P3" s="4">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>15</v>
-      </c>
-      <c r="R3" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="24" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="C24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="F24" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
+    <row r="25" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="E25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
+    <row r="26" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="M6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="O6" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="D26" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="E26" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="F26" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A6"/>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2421,7 +2721,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2593,12 +2893,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2855,17 +3154,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2890,18 +3199,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE4BE3F7-3F7E-439B-A34A-0B5D401D291B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10C25408-8E99-4559-8A76-B51CBDEA6F59}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="97ec87dc-3e4b-498f-8c54-d3eec44d52b0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1dd5eaae-4ccd-4a66-9642-0dd43421f9fc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>